--- a/Outcome tests.xlsx
+++ b/Outcome tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/l_r_siecker_student_tue_nl/Documents/01. TUe/Y5Q2/2AMU10 - Foundations of AI/Assignment/competitive_sudoku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{9DFE2CFD-ADDF-4604-877F-8A1FC193679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E8C244D-8AE3-4E5C-A117-D4A6ACCB5F52}"/>
+  <xr:revisionPtr revIDLastSave="395" documentId="8_{9DFE2CFD-ADDF-4604-877F-8A1FC193679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E932E07-BB8C-45E1-9BB4-606BD75F288B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D3D799B-1D6E-4F6D-90B1-0B01FAC18D64}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="36">
   <si>
     <t>team40_A1</t>
   </si>
@@ -115,6 +115,36 @@
   <si>
     <t>random</t>
   </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>easy-2x2</t>
+  </si>
+  <si>
+    <t>easy-3x3</t>
+  </si>
+  <si>
+    <t>empty-3x3</t>
+  </si>
+  <si>
+    <t>hard-3x3</t>
+  </si>
+  <si>
+    <t>random-2x3</t>
+  </si>
+  <si>
+    <t>random-3x3</t>
+  </si>
+  <si>
+    <t>random-3x4</t>
+  </si>
+  <si>
+    <t>random-4x4</t>
+  </si>
 </sst>
 </file>
 
@@ -181,6 +211,2553 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scores per time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40949300087489071"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>team</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AK$3:$AN$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$5:$AN$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2BE8-41BE-9A3F-F99B28B67060}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AK$3:$AN$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$4:$AN$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BE8-41BE-9A3F-F99B28B67060}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>''''</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AK$3:$AN$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$6:$AN$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2BE8-41BE-9A3F-F99B28B67060}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>team</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AK$3:$AN$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$8:$AN$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2BE8-41BE-9A3F-F99B28B67060}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AK$3:$AN$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$7:$AN$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2BE8-41BE-9A3F-F99B28B67060}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1064549759"/>
+        <c:axId val="1064549343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1064549759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1064549343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1064549343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1064549759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+          <a:cs typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scores per board</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>team</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AK$20:$AR$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>easy-2x2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>easy-3x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>empty-3x3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard-3x3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>random-2x3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>random-3x3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>random-3x4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>random-4x4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$22:$AR$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E31D-4891-BA3F-89CAA6DF5699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AK$20:$AR$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>easy-2x2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>easy-3x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>empty-3x3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard-3x3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>random-2x3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>random-3x3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>random-3x4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>random-4x4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$21:$AR$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E31D-4891-BA3F-89CAA6DF5699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AI$23:$AJ$23</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>greedy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>team</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AK$20:$AR$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>easy-2x2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>easy-3x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>empty-3x3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard-3x3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>random-2x3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>random-3x3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>random-3x4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>random-4x4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$23:$AR$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E31D-4891-BA3F-89CAA6DF5699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AI$25:$AJ$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>team</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AK$20:$AR$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>easy-2x2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>easy-3x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>empty-3x3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard-3x3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>random-2x3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>random-3x3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>random-3x4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>random-4x4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$25:$AR$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E31D-4891-BA3F-89CAA6DF5699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AK$20:$AR$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>easy-2x2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>easy-3x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>empty-3x3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard-3x3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>random-2x3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>random-3x3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>random-3x4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>random-4x4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$24:$AR$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E31D-4891-BA3F-89CAA6DF5699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="574970255"/>
+        <c:axId val="574979823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="574970255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574979823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="574979823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574970255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:latin typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+          <a:cs typeface="Mongolian Baiti" panose="03000500000000000000" pitchFamily="66" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6733DADF-F5E7-E82B-E461-109DB415219C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEE7A42-394D-C57A-29E8-C87C9ECC52DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,10 +3057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7550A8-4B75-4A14-A44C-C44504BC02E9}">
-  <dimension ref="A1:AG69"/>
+  <dimension ref="A1:AR69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O5" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="BF12" sqref="BF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +3094,7 @@
     <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -525,7 +3102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -533,7 +3110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,8 +3204,20 @@
         <f>COUNTIF(AD3:AD18, "greedy_player")</f>
         <v>8</v>
       </c>
+      <c r="AK3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -708,11 +3297,11 @@
         <v>11</v>
       </c>
       <c r="AC4" t="str">
-        <f t="shared" ref="AC4:AC66" si="0">IF(K4=1,B4,C4)</f>
+        <f t="shared" ref="AC4:AC59" si="0">IF(K4=1,B4,C4)</f>
         <v>team40_A1</v>
       </c>
       <c r="AD4" t="str">
-        <f t="shared" ref="AD4:AD66" si="1">IF(Y4=1,P4,Q4)</f>
+        <f t="shared" ref="AD4:AD52" si="1">IF(Y4=1,P4,Q4)</f>
         <v>team40_A1</v>
       </c>
       <c r="AF4" t="s">
@@ -722,8 +3311,26 @@
         <f>COUNTIF(AD3:AD18, "team40_A1")</f>
         <v>8</v>
       </c>
+      <c r="AI4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK4">
+        <v>8</v>
+      </c>
+      <c r="AL4">
+        <v>9</v>
+      </c>
+      <c r="AM4">
+        <v>5</v>
+      </c>
+      <c r="AN4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -817,8 +3424,26 @@
         <f>COUNTIF(AC3:AC18, "random_player")</f>
         <v>8</v>
       </c>
+      <c r="AI5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK5">
+        <v>8</v>
+      </c>
+      <c r="AL5">
+        <v>7</v>
+      </c>
+      <c r="AM5">
+        <v>11</v>
+      </c>
+      <c r="AN5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -913,7 +3538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1000,8 +3625,26 @@
         <f t="shared" si="1"/>
         <v>greedy_player</v>
       </c>
+      <c r="AI7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK7">
+        <v>8</v>
+      </c>
+      <c r="AL7">
+        <v>0.2</v>
+      </c>
+      <c r="AM7">
+        <v>0.2</v>
+      </c>
+      <c r="AN7">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1088,8 +3731,26 @@
         <f t="shared" si="1"/>
         <v>team40_A1</v>
       </c>
+      <c r="AI8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK8">
+        <v>8</v>
+      </c>
+      <c r="AL8">
+        <v>16</v>
+      </c>
+      <c r="AM8">
+        <v>16</v>
+      </c>
+      <c r="AN8">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +3838,7 @@
         <v>greedy_player</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1265,7 +3926,7 @@
         <v>team40_A1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +4014,7 @@
         <v>greedy_player</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -1441,7 +4102,7 @@
         <v>team40_A1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +4190,7 @@
         <v>greedy_player</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +4278,7 @@
         <v>team40_A1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +4366,7 @@
         <v>greedy_player</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -1793,7 +4454,7 @@
         <v>team40_A1</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +4542,7 @@
         <v>greedy_player</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -1969,7 +4630,7 @@
         <v>team40_A1</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1977,7 +4638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -2047,8 +4708,32 @@
         <f>COUNTIF(AD20:AD35, "greedy_player")</f>
         <v>9</v>
       </c>
+      <c r="AK20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -2118,8 +4803,38 @@
         <f>COUNTIF(AD20:AD35, "team40_A1")</f>
         <v>7</v>
       </c>
+      <c r="AI21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK21">
+        <v>4</v>
+      </c>
+      <c r="AL21">
+        <v>6</v>
+      </c>
+      <c r="AM21">
+        <v>2</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>5</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>2</v>
+      </c>
+      <c r="AR21">
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -2189,8 +4904,38 @@
         <f>COUNTIF(AC$20:AC$35, "random_player")</f>
         <v>0</v>
       </c>
+      <c r="AI22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK22">
+        <v>4</v>
+      </c>
+      <c r="AL22">
+        <v>2</v>
+      </c>
+      <c r="AM22">
+        <v>6</v>
+      </c>
+      <c r="AN22">
+        <v>5</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>7</v>
+      </c>
+      <c r="AQ22">
+        <v>6</v>
+      </c>
+      <c r="AR22">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -2261,7 +5006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -2324,8 +5069,38 @@
         <f t="shared" si="1"/>
         <v>greedy_player</v>
       </c>
+      <c r="AI24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>1</v>
       </c>
@@ -2388,8 +5163,38 @@
         <f t="shared" si="1"/>
         <v>team40_A1</v>
       </c>
+      <c r="AI25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK25">
+        <v>7</v>
+      </c>
+      <c r="AL25">
+        <v>7</v>
+      </c>
+      <c r="AM25">
+        <v>7</v>
+      </c>
+      <c r="AN25">
+        <v>7</v>
+      </c>
+      <c r="AO25">
+        <v>7</v>
+      </c>
+      <c r="AP25">
+        <v>7</v>
+      </c>
+      <c r="AQ25">
+        <v>7</v>
+      </c>
+      <c r="AR25">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -2453,7 +5258,7 @@
         <v>greedy_player</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -2517,7 +5322,7 @@
         <v>team40_A1</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -2581,7 +5386,7 @@
         <v>greedy_player</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>1</v>
       </c>
@@ -2645,7 +5450,7 @@
         <v>team40_A1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -2709,7 +5514,7 @@
         <v>team40_A1</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -2773,7 +5578,7 @@
         <v>team40_A1</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -5152,5 +7957,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>